--- a/biology/Botanique/Solanum_sessiliflorum/Solanum_sessiliflorum.xlsx
+++ b/biology/Botanique/Solanum_sessiliflorum/Solanum_sessiliflorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tomate chauve-souris, Cocona
 Solanum sessiliflorum, appelé cocona en Guyane ou  tomate chauve-souris, est une espèce de plantes à fleurs de la famille des Solanaceae. C'est un arbuste tropical dont les grosses branches robustes portent des feuilles dentées et velues. Son fruit est une baie comestible rouge, orange ou jaune. On le rencontre principalement en Amérique du Sud en bordure de la région amazonienne, comme dans la province de Purús à l'Est du Pérou.
-Il ressemble à plusieurs espèces proches comme la naranjille ou le pseudolulo, mais ne porte généralement pas d'épines. Il ne présente par ailleurs pas la coloration violette caractéristique des naranjilles. Ses fleurs ressemblent à celles de la pomme de terre en plus gros, et avec des pétales vert clair. Il peut s'hybrider avec d'autres Solanum spp. proches[4].
+Il ressemble à plusieurs espèces proches comme la naranjille ou le pseudolulo, mais ne porte généralement pas d'épines. Il ne présente par ailleurs pas la coloration violette caractéristique des naranjilles. Ses fleurs ressemblent à celles de la pomme de terre en plus gros, et avec des pétales vert clair. Il peut s'hybrider avec d'autres Solanum spp. proches.
 Solanum georgicum et Solanum hyporhodium ont été (et sont parfois encore) inclus dans cette espèce, mais aujourd'hui ils sont généralement considérés comme distincts.
 </t>
         </is>
@@ -514,10 +526,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Comme toute espèce domestiquée, Solanum sessiliflorum porte divers noms vernaculaires dans différentes langues et contrées[5] :
-anglais - cocona[6], orinoco apple, peach tomato, topiro
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Comme toute espèce domestiquée, Solanum sessiliflorum porte divers noms vernaculaires dans différentes langues et contrées :
+anglais - cocona, orinoco apple, peach tomato, topiro
 Brésil - cocona, cubiu, maná, tomate-de-Indio (portugais)
 Colombie - be-tá-ka (cubeo), cocona de-twá (taiwano, tatuya), coconilla, lulo, tupiru
 Français - tomate chauve-souris
@@ -554,10 +568,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de la région andine de l'Amérique du Sud, où il est parfois cultivé pour la consommation humaine. Dans l'émission Survivorman de Discovery Channel à l'occasion d'une incursion dans la région amazonienne fin 2007, le fruit a été décrit comme une "explosion de saveurs", avec un goût entre le citron et la tomate. Il peut être consommé frais pelé ou en salade de fruits, ou cuisiné avec du poisson ou de la viande, en sauce, ou dans des gâteaux (en remplacement des pommes), en confiture ou en bonbons. On en fait également un jus rafraichissant après adjonction de sucre. Les jeunes feuilles sont aussi cuisinées en légume-feuille[5]. Le fruit est riche en fer, niacine, en vitamines A et C[7].
-Dans les médecines traditionnelles, cette plante est utilisée pour soigner le diabète, les brûlures, les mycoses cutanées, et pour baisser les taux d'acide urique et de cholestérol. La poudre des graines est utilisée par les amérindiens Taïwanos pour apaiser les irritations de la bouche liées à la mastication de feuilles de coca. Le jus est utilisé dans les soins de la peau et pour rendre les cheveux brillants[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de la région andine de l'Amérique du Sud, où il est parfois cultivé pour la consommation humaine. Dans l'émission Survivorman de Discovery Channel à l'occasion d'une incursion dans la région amazonienne fin 2007, le fruit a été décrit comme une "explosion de saveurs", avec un goût entre le citron et la tomate. Il peut être consommé frais pelé ou en salade de fruits, ou cuisiné avec du poisson ou de la viande, en sauce, ou dans des gâteaux (en remplacement des pommes), en confiture ou en bonbons. On en fait également un jus rafraichissant après adjonction de sucre. Les jeunes feuilles sont aussi cuisinées en légume-feuille. Le fruit est riche en fer, niacine, en vitamines A et C.
+Dans les médecines traditionnelles, cette plante est utilisée pour soigner le diabète, les brûlures, les mycoses cutanées, et pour baisser les taux d'acide urique et de cholestérol. La poudre des graines est utilisée par les amérindiens Taïwanos pour apaiser les irritations de la bouche liées à la mastication de feuilles de coca. Le jus est utilisé dans les soins de la peau et pour rendre les cheveux brillants.
 			Fruits de cocona (et caramboles) sur l'étal du marché de Belen à Iquitos (Pérou)
 			Jus de cocona au Pérou
 			Jus de cocona au lait servi à Iquitos
@@ -589,9 +605,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solanum sessiliflorum pousse sur les sols alluviaux et supporte les sols tropicaux, pauvres et acides. La germination des graines est favorisée par le passage à travers le tractus digestif humain. Il est adapté aux régions tropicales humides de basse altitude (&lt;1000 m)[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solanum sessiliflorum pousse sur les sols alluviaux et supporte les sols tropicaux, pauvres et acides. La germination des graines est favorisée par le passage à travers le tractus digestif humain. Il est adapté aux régions tropicales humides de basse altitude (&lt;1000 m).
 Il peut être cultivé en intérieur sous les climats tempérés comme plante ornementale. Il semble assez sensible aux acariens, et il est donc préférable d'éviter de le garder trop au sec pendant l'hiver. Comme la narangille, il est très sensible aux pucerons et aux nématodes. Comme diverses plantes subtropicales, il peut supporter des températures fraîches, mais ne résiste pas au gel. Pendant l'été, il peut être cultivé à l'extérieur ou dans une serre froide. Lorsqu'il est cultivé à partir de semences, il peut porter des fruits au bout de 9 à 24 mois.
 			Feuillage de Solanum sessiliflorum au Costa Rica
 			Pied de Solanum sessiliflorum et ses fruits
